--- a/Code/DoAn3_10122277_12522T.1/test-output/LoginTestReport.xlsx
+++ b/Code/DoAn3_10122277_12522T.1/test-output/LoginTestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>Xin chào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông tin tài khoản </t>
+  </si>
+  <si>
+    <t>Thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Email hoặc mật khẩu không đúng, vui lòng thử lại</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập Email Vui lòng nhập Mật khẩu</t>
+  </si>
+  <si>
+    <t>sách hay</t>
+  </si>
+  <si>
+    <t>Kết quả tìm kiếm 85 sản phẩm</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập từ khóa tìm kiếm</t>
+  </si>
+  <si>
+    <t>gà</t>
+  </si>
+  <si>
+    <t>Không tìm thấy bất kỳ kết quả nào với từ khóa "gà"</t>
   </si>
 </sst>
 </file>
@@ -172,13 +199,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
